--- a/web/excel/moneysend.xlsx
+++ b/web/excel/moneysend.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685F1A66-E72A-4A3E-B47B-B229FAF58BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA5ED4-0DA9-484F-BB6C-0B622E417908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,8 @@
   <cols>
     <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
     <col min="6" max="8" width="24.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>

--- a/web/excel/moneysend.xlsx
+++ b/web/excel/moneysend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web\OpenServer\domains\soglomdi\web\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Avaz\Соглом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDA5ED4-0DA9-484F-BB6C-0B622E417908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B384F18C-105C-41F4-BFCC-248D7157206C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>Саналар</t>
+  </si>
+  <si>
+    <t>2022-01-01 - 2022-02-02</t>
+  </si>
+  <si>
+    <t>Юборган ходим</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Кабул килган ходим</t>
+  </si>
+  <si>
+    <t>Юбориш усули</t>
+  </si>
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>Юборган ходим</t>
+    <t>Юборган филиал</t>
+  </si>
+  <si>
+    <t>Кабул килган филиал</t>
+  </si>
+  <si>
+    <t>Юбориш усули накд/пластик</t>
   </si>
   <si>
     <t>Сумма</t>
@@ -34,51 +58,35 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Саналар</t>
-  </si>
-  <si>
-    <t>Юборган филиал</t>
-  </si>
-  <si>
-    <t>Кабул килган филиал</t>
-  </si>
-  <si>
-    <t>Кабул килган ходим</t>
-  </si>
-  <si>
-    <t>Юбориш усули накд/пластик</t>
-  </si>
-  <si>
     <t>Юборилган вакт</t>
   </si>
   <si>
     <t>Кабул килинган вакт</t>
-  </si>
-  <si>
-    <t>Юбориш усули</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF003F2F"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF003F2F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -95,8 +103,16 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF003F2F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -157,27 +173,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -491,163 +519,186 @@
   <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="11.4" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="8" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
     <col min="13" max="15" width="24.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="8"/>
+    </row>
     <row r="2" spans="1:16" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5"/>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:16" ht="27.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="9.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="C4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="11" t="s">
         <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:16" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="10.199999999999999" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:16" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>